--- a/test/output/compress封包遺失率比較.xlsx
+++ b/test/output/compress封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF2E9E-056C-4F04-92CC-4BB3993F1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411A2B8A-F2F9-4AA9-AD77-168C17D0EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6960" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -196,11 +198,15 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -349,6 +355,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10524799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.104106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.101794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.102436</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -434,6 +461,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.04606E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0037600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0204700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0045800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9680600000000008E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -461,7 +509,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -471,10 +519,12 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -533,10 +583,10 @@
                   <c:v>0.13092599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13136700000000001</c:v>
+                  <c:v>0.13101599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.130717</c:v>
+                  <c:v>0.130804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,677 +936,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-220B-4259-BE82-65EF202D7B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-220B-4259-BE82-65EF202D7B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-220B-4259-BE82-65EF202D7B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC4E-485C-B520-B3103E5195BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355066328"/>
-        <c:axId val="355058880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355066328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355058880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355058880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>packet loss rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355066328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>工作表1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1643,10 +1022,10 @@
                   <c:v>0.13092599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13136700000000001</c:v>
+                  <c:v>0.13101599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.130717</c:v>
+                  <c:v>0.130804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +1054,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1686,11 +1067,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1733,6 +1118,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29972900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27490700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27003899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26848300000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26609500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26223600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26170900000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1760,7 +1166,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1771,11 +1179,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1822,10 +1234,10 @@
                   <c:v>0.49626599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.53129899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.55158300000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53129899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.57725800000000005</c:v>
@@ -2162,7 +1574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2257,6 +1669,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12831300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12840099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12865299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12918399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12864500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2284,7 +1717,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2295,11 +1730,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2342,6 +1781,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25358799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24988099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24413299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24068899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23922499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.237736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23774500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2369,7 +1829,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2380,11 +1842,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2427,6 +1893,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52612000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54453300000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56691800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60692599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62996300000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63259699999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65745900000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2750,6 +2237,769 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12846299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12891900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12854099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12878500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12901899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12872600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-026F-477A-BCEE-B07DBFB10EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.104279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10341500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10227799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9883E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10247199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-026F-477A-BCEE-B07DBFB10EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0124599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6754000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0599600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.03792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10705E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0333699999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-026F-477A-BCEE-B07DBFB10EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12831300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12840099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12865299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12918399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12864500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-026F-477A-BCEE-B07DBFB10EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355063976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5034,42 +5284,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>281608</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -5100,7 +5314,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5125,6 +5339,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2043E286-39A2-4AAD-971E-2AFAB407335F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207481</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F7ABF9-8527-4A01-B688-DA509F351734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,7 +5723,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5541,11 +5793,53 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.10524799999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.104407</v>
+      </c>
+      <c r="E3">
+        <v>0.104106</v>
+      </c>
+      <c r="F3">
+        <v>0.101794</v>
+      </c>
+      <c r="G3">
+        <v>0.104432</v>
+      </c>
+      <c r="H3">
+        <v>0.102948</v>
+      </c>
+      <c r="I3">
+        <v>0.102436</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1.04606E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.0037600000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0204700000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.00103E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.0045800000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.01701E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.9680600000000008E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -5567,16 +5861,37 @@
         <v>0.13092599999999999</v>
       </c>
       <c r="H5">
-        <v>0.13136700000000001</v>
+        <v>0.13101599999999999</v>
       </c>
       <c r="I5">
-        <v>0.130717</v>
+        <v>0.130804</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6">
+        <v>0.29972900000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.27490700000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.27003899999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.26848300000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.26609500000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.26223600000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.26170900000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -5586,10 +5901,10 @@
         <v>0.49626599999999998</v>
       </c>
       <c r="D7">
+        <v>0.53129899999999997</v>
+      </c>
+      <c r="E7">
         <v>0.55158300000000005</v>
-      </c>
-      <c r="E7">
-        <v>0.53129899999999997</v>
       </c>
       <c r="F7">
         <v>0.57725800000000005</v>
@@ -5640,30 +5955,156 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
+      <c r="C10">
+        <v>0.12846299999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.128834</v>
+      </c>
+      <c r="E10">
+        <v>0.12891900000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.12854099999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.12878500000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.12901899999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.12872600000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>0.104279</v>
+      </c>
+      <c r="D11">
+        <v>0.10341500000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.103115</v>
+      </c>
+      <c r="F11">
+        <v>0.10227799999999999</v>
+      </c>
+      <c r="G11">
+        <v>9.9883E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.101508</v>
+      </c>
+      <c r="I11">
+        <v>0.10247199999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>1.0124599999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.6754000000000007E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.07875E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.0599600000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.03792E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.10705E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.0333699999999999E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>0.12831300000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.128299</v>
+      </c>
+      <c r="E13">
+        <v>0.12840099999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.12865299999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.128859</v>
+      </c>
+      <c r="H13">
+        <v>0.12918399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.12864500000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="C14">
+        <v>0.25358799999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.24988099999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.24413299999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.24068899999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.23922499999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.237736</v>
+      </c>
+      <c r="I14">
+        <v>0.23774500000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0.52612000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.54453300000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.56691800000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.60692599999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.62996300000000005</v>
+      </c>
+      <c r="H15">
+        <v>0.63259699999999996</v>
+      </c>
+      <c r="I15">
+        <v>0.65745900000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
